--- a/Code/Results/Cases/Case_0_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9965067495044733</v>
+        <v>1.026685587568758</v>
       </c>
       <c r="D2">
-        <v>1.009085857756464</v>
+        <v>1.034303725391316</v>
       </c>
       <c r="E2">
-        <v>1.003486865480039</v>
+        <v>1.026883986014946</v>
       </c>
       <c r="F2">
-        <v>1.010772252787196</v>
+        <v>1.041409459000215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045982842770724</v>
+        <v>1.03083600681697</v>
       </c>
       <c r="J2">
-        <v>1.018792447476804</v>
+        <v>1.031847650046887</v>
       </c>
       <c r="K2">
-        <v>1.020420046936746</v>
+        <v>1.037103585536791</v>
       </c>
       <c r="L2">
-        <v>1.014897835538694</v>
+        <v>1.029705330976416</v>
       </c>
       <c r="M2">
-        <v>1.022083525580766</v>
+        <v>1.044189055169015</v>
       </c>
       <c r="N2">
-        <v>1.010291638889412</v>
+        <v>1.014653901931322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000775430785594</v>
+        <v>1.02757554019607</v>
       </c>
       <c r="D3">
-        <v>1.012745368459256</v>
+        <v>1.035119459966553</v>
       </c>
       <c r="E3">
-        <v>1.006864950187946</v>
+        <v>1.027637310653201</v>
       </c>
       <c r="F3">
-        <v>1.015062402250616</v>
+        <v>1.04238331349327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046979526900632</v>
+        <v>1.030942097318963</v>
       </c>
       <c r="J3">
-        <v>1.021244979073956</v>
+        <v>1.032377774215887</v>
       </c>
       <c r="K3">
-        <v>1.023217726438209</v>
+        <v>1.037728462511716</v>
       </c>
       <c r="L3">
-        <v>1.017410739834545</v>
+        <v>1.030266410919716</v>
       </c>
       <c r="M3">
-        <v>1.025506117119518</v>
+        <v>1.044973102917291</v>
       </c>
       <c r="N3">
-        <v>1.011103345422108</v>
+        <v>1.01482900863025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003479649134291</v>
+        <v>1.02815139956578</v>
       </c>
       <c r="D4">
-        <v>1.0150690419823</v>
+        <v>1.035647660894482</v>
       </c>
       <c r="E4">
-        <v>1.009010941444012</v>
+        <v>1.028125166039026</v>
       </c>
       <c r="F4">
-        <v>1.017787666942135</v>
+        <v>1.043014163593116</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047593270379416</v>
+        <v>1.031008520972645</v>
       </c>
       <c r="J4">
-        <v>1.022794762020876</v>
+        <v>1.032720178761042</v>
       </c>
       <c r="K4">
-        <v>1.024988936278954</v>
+        <v>1.038132516948554</v>
       </c>
       <c r="L4">
-        <v>1.019001815385514</v>
+        <v>1.030629209876251</v>
       </c>
       <c r="M4">
-        <v>1.027676047900318</v>
+        <v>1.045480518650982</v>
       </c>
       <c r="N4">
-        <v>1.011616258532202</v>
+        <v>1.01494209478125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004603095751365</v>
+        <v>1.028393489725466</v>
       </c>
       <c r="D5">
-        <v>1.016035647658621</v>
+        <v>1.035869802697426</v>
       </c>
       <c r="E5">
-        <v>1.009903868152053</v>
+        <v>1.02833035559902</v>
       </c>
       <c r="F5">
-        <v>1.018921625003845</v>
+        <v>1.043279539351393</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047843943612442</v>
+        <v>1.031035912123558</v>
       </c>
       <c r="J5">
-        <v>1.023437634397738</v>
+        <v>1.032863975733304</v>
       </c>
       <c r="K5">
-        <v>1.025724466831017</v>
+        <v>1.038302312492397</v>
       </c>
       <c r="L5">
-        <v>1.019662574044397</v>
+        <v>1.03078166774318</v>
       </c>
       <c r="M5">
-        <v>1.028577909931825</v>
+        <v>1.045693855077817</v>
       </c>
       <c r="N5">
-        <v>1.011829017607726</v>
+        <v>1.014989583218723</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004790954028585</v>
+        <v>1.028434137626689</v>
       </c>
       <c r="D6">
-        <v>1.016197352343921</v>
+        <v>1.035907106290292</v>
       </c>
       <c r="E6">
-        <v>1.010053260443072</v>
+        <v>1.028364813363609</v>
       </c>
       <c r="F6">
-        <v>1.019111344375033</v>
+        <v>1.043324106822342</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047885605413907</v>
+        <v>1.031040479915175</v>
       </c>
       <c r="J6">
-        <v>1.023545074696964</v>
+        <v>1.032888111053327</v>
       </c>
       <c r="K6">
-        <v>1.02584744040749</v>
+        <v>1.038330817832093</v>
       </c>
       <c r="L6">
-        <v>1.019773048249235</v>
+        <v>1.030807262370808</v>
       </c>
       <c r="M6">
-        <v>1.028728737272364</v>
+        <v>1.045729676268566</v>
       </c>
       <c r="N6">
-        <v>1.011864574734046</v>
+        <v>1.014997553617577</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003494712775071</v>
+        <v>1.02815463439231</v>
       </c>
       <c r="D7">
-        <v>1.015081997725821</v>
+        <v>1.035650628827601</v>
       </c>
       <c r="E7">
-        <v>1.00902290873351</v>
+        <v>1.028127907420043</v>
       </c>
       <c r="F7">
-        <v>1.017802864563645</v>
+        <v>1.043017708905104</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047596648592188</v>
+        <v>1.031008889071436</v>
       </c>
       <c r="J7">
-        <v>1.022803385814327</v>
+        <v>1.03272210077371</v>
       </c>
       <c r="K7">
-        <v>1.024998799829166</v>
+        <v>1.038134786037399</v>
       </c>
       <c r="L7">
-        <v>1.019010676114196</v>
+        <v>1.030631247274096</v>
       </c>
       <c r="M7">
-        <v>1.027688138975487</v>
+        <v>1.045483369190398</v>
       </c>
       <c r="N7">
-        <v>1.011619112603318</v>
+        <v>1.014942729532773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9979616412613835</v>
+        <v>1.026986350375552</v>
       </c>
       <c r="D8">
-        <v>1.010331979345394</v>
+        <v>1.03457932999597</v>
       </c>
       <c r="E8">
-        <v>1.00463693851275</v>
+        <v>1.027138491025567</v>
       </c>
       <c r="F8">
-        <v>1.012232887583483</v>
+        <v>1.041738431629005</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046326206532898</v>
+        <v>1.030872320539151</v>
       </c>
       <c r="J8">
-        <v>1.019629137654272</v>
+        <v>1.03202693592135</v>
       </c>
       <c r="K8">
-        <v>1.02137379280522</v>
+        <v>1.037314823431779</v>
       </c>
       <c r="L8">
-        <v>1.015754463740018</v>
+        <v>1.029895003111619</v>
       </c>
       <c r="M8">
-        <v>1.023249667478508</v>
+        <v>1.04445400948468</v>
       </c>
       <c r="N8">
-        <v>1.010568557531149</v>
+        <v>1.014713125282653</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.987746524577046</v>
+        <v>1.024927742925553</v>
       </c>
       <c r="D9">
-        <v>1.001606964710865</v>
+        <v>1.032694435016063</v>
       </c>
       <c r="E9">
-        <v>0.9965891405537242</v>
+        <v>1.025398175156111</v>
       </c>
       <c r="F9">
-        <v>1.002009929875255</v>
+        <v>1.039489616055452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043843011951097</v>
+        <v>1.030614676471285</v>
       </c>
       <c r="J9">
-        <v>1.013739530669705</v>
+        <v>1.030797259980668</v>
       </c>
       <c r="K9">
-        <v>1.014674023726425</v>
+        <v>1.035867833812215</v>
       </c>
       <c r="L9">
-        <v>1.009737800040117</v>
+        <v>1.028595729793558</v>
       </c>
       <c r="M9">
-        <v>1.015070481323119</v>
+        <v>1.042640852121151</v>
       </c>
       <c r="N9">
-        <v>1.008619281054425</v>
+        <v>1.014306869379214</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9805914839488133</v>
+        <v>1.023555448611943</v>
       </c>
       <c r="D10">
-        <v>0.9955282749163913</v>
+        <v>1.031439856664543</v>
       </c>
       <c r="E10">
-        <v>0.9909887324269828</v>
+        <v>1.024240181747995</v>
       </c>
       <c r="F10">
-        <v>0.9948917485712816</v>
+        <v>1.037994145170531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042014568465328</v>
+        <v>1.030431542089097</v>
       </c>
       <c r="J10">
-        <v>1.009596882941003</v>
+        <v>1.029974379554545</v>
       </c>
       <c r="K10">
-        <v>1.009978739862601</v>
+        <v>1.034901827606655</v>
       </c>
       <c r="L10">
-        <v>1.00552261677017</v>
+        <v>1.027728329741638</v>
       </c>
       <c r="M10">
-        <v>1.009353850684399</v>
+        <v>1.041432633996729</v>
       </c>
       <c r="N10">
-        <v>1.007248261905189</v>
+        <v>1.014034937224588</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774036519899497</v>
+        <v>1.022961270782418</v>
       </c>
       <c r="D11">
-        <v>0.9928283458240085</v>
+        <v>1.03089710736773</v>
       </c>
       <c r="E11">
-        <v>0.9885029388623109</v>
+        <v>1.023739302605656</v>
       </c>
       <c r="F11">
-        <v>0.991730763201617</v>
+        <v>1.037347494333791</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041179712340038</v>
+        <v>1.030349556626752</v>
       </c>
       <c r="J11">
-        <v>1.007747644784693</v>
+        <v>1.029617342790616</v>
       </c>
       <c r="K11">
-        <v>1.007886788302338</v>
+        <v>1.034483231856987</v>
       </c>
       <c r="L11">
-        <v>1.003644979459065</v>
+        <v>1.027352461765031</v>
       </c>
       <c r="M11">
-        <v>1.006810328473336</v>
+        <v>1.040909609681034</v>
       </c>
       <c r="N11">
-        <v>1.006636289909194</v>
+        <v>1.013916932814513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9762053626182422</v>
+        <v>1.022740572994089</v>
       </c>
       <c r="D12">
-        <v>0.9918147660108699</v>
+        <v>1.030695581377734</v>
       </c>
       <c r="E12">
-        <v>0.9875700180299901</v>
+        <v>1.023553336363434</v>
       </c>
       <c r="F12">
-        <v>0.990544166300165</v>
+        <v>1.03710743569788</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04086293688166</v>
+        <v>1.03031870070685</v>
       </c>
       <c r="J12">
-        <v>1.007052045525685</v>
+        <v>1.029484615733733</v>
       </c>
       <c r="K12">
-        <v>1.007100480447302</v>
+        <v>1.03432770154521</v>
       </c>
       <c r="L12">
-        <v>1.00293929529876</v>
+        <v>1.02721280704055</v>
       </c>
       <c r="M12">
-        <v>1.005854795394608</v>
+        <v>1.040715357772547</v>
       </c>
       <c r="N12">
-        <v>1.006406101423539</v>
+        <v>1.013873062643962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9764630538006921</v>
+        <v>1.022787913115475</v>
       </c>
       <c r="D13">
-        <v>0.9920326754730503</v>
+        <v>1.030738805957815</v>
       </c>
       <c r="E13">
-        <v>0.9877705741561431</v>
+        <v>1.023593222993117</v>
       </c>
       <c r="F13">
-        <v>0.9907992701094946</v>
+        <v>1.037158922901361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040931191499421</v>
+        <v>1.030325337623804</v>
       </c>
       <c r="J13">
-        <v>1.007201654453638</v>
+        <v>1.029513090994578</v>
       </c>
       <c r="K13">
-        <v>1.00726957242584</v>
+        <v>1.034361065352377</v>
       </c>
       <c r="L13">
-        <v>1.003091046284125</v>
+        <v>1.027242765272907</v>
       </c>
       <c r="M13">
-        <v>1.006060255799652</v>
+        <v>1.040757024423001</v>
       </c>
       <c r="N13">
-        <v>1.00645560980682</v>
+        <v>1.0138824746615</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773048947445306</v>
+        <v>1.022943027699222</v>
       </c>
       <c r="D14">
-        <v>0.9927447845109134</v>
+        <v>1.030880447622873</v>
       </c>
       <c r="E14">
-        <v>0.9884260216316135</v>
+        <v>1.023723928884969</v>
       </c>
       <c r="F14">
-        <v>0.9916329368455461</v>
+        <v>1.037327648224125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041153664868456</v>
+        <v>1.030347014280407</v>
       </c>
       <c r="J14">
-        <v>1.007690326299935</v>
+        <v>1.029606373721614</v>
       </c>
       <c r="K14">
-        <v>1.007821983361735</v>
+        <v>1.034470376588506</v>
       </c>
       <c r="L14">
-        <v>1.00358681782013</v>
+        <v>1.027340918684009</v>
       </c>
       <c r="M14">
-        <v>1.006731566305049</v>
+        <v>1.040893552289177</v>
       </c>
       <c r="N14">
-        <v>1.006617321848067</v>
+        <v>1.013913307267122</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778216785659699</v>
+        <v>1.023038599783256</v>
       </c>
       <c r="D15">
-        <v>0.9931821036985462</v>
+        <v>1.030967727743622</v>
       </c>
       <c r="E15">
-        <v>0.9888285800475864</v>
+        <v>1.023804472085134</v>
       </c>
       <c r="F15">
-        <v>0.9921449149091102</v>
+        <v>1.037431623563142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041289847845145</v>
+        <v>1.030360316624679</v>
       </c>
       <c r="J15">
-        <v>1.007990247209582</v>
+        <v>1.029663834048692</v>
       </c>
       <c r="K15">
-        <v>1.008161101360534</v>
+        <v>1.034537720892448</v>
       </c>
       <c r="L15">
-        <v>1.003891174910583</v>
+        <v>1.027401388891421</v>
       </c>
       <c r="M15">
-        <v>1.007143741739837</v>
+        <v>1.040977674647156</v>
       </c>
       <c r="N15">
-        <v>1.006716573187499</v>
+        <v>1.013932299218647</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9808011008741963</v>
+        <v>1.023594883062416</v>
       </c>
       <c r="D16">
-        <v>0.99570598812559</v>
+        <v>1.031475887624044</v>
       </c>
       <c r="E16">
-        <v>0.9911523876389375</v>
+        <v>1.024273434944764</v>
       </c>
       <c r="F16">
-        <v>0.9950998202201257</v>
+        <v>1.038037080292524</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042069050271488</v>
+        <v>1.030436926652101</v>
       </c>
       <c r="J16">
-        <v>1.009718410784694</v>
+        <v>1.029998059745204</v>
       </c>
       <c r="K16">
-        <v>1.010116300378366</v>
+        <v>1.034929602023807</v>
       </c>
       <c r="L16">
-        <v>1.005646093748131</v>
+        <v>1.027753269101772</v>
       </c>
       <c r="M16">
-        <v>1.009521176411614</v>
+        <v>1.041467348499739</v>
       </c>
       <c r="N16">
-        <v>1.007288480294535</v>
+        <v>1.014042763427799</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9826455202165528</v>
+        <v>1.023943834929244</v>
       </c>
       <c r="D17">
-        <v>0.9972706431929497</v>
+        <v>1.031794775471903</v>
       </c>
       <c r="E17">
-        <v>0.9925934662992663</v>
+        <v>1.024567748494729</v>
       </c>
       <c r="F17">
-        <v>0.9969318329396899</v>
+        <v>1.0384171086747</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042546144545472</v>
+        <v>1.030484263285086</v>
       </c>
       <c r="J17">
-        <v>1.010787337800146</v>
+        <v>1.030207517597223</v>
       </c>
       <c r="K17">
-        <v>1.011326697759666</v>
+        <v>1.035175336883937</v>
       </c>
       <c r="L17">
-        <v>1.00673261721955</v>
+        <v>1.027973920637654</v>
       </c>
       <c r="M17">
-        <v>1.010993872955415</v>
+        <v>1.04177454690783</v>
       </c>
       <c r="N17">
-        <v>1.007642235211674</v>
+        <v>1.014111986441427</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9837127396908674</v>
+        <v>1.024147375920122</v>
       </c>
       <c r="D18">
-        <v>0.9981767734337547</v>
+        <v>1.031980824676309</v>
       </c>
       <c r="E18">
-        <v>0.9934281909832072</v>
+        <v>1.024739468577008</v>
       </c>
       <c r="F18">
-        <v>0.9979928600924334</v>
+        <v>1.038638859345402</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042820278089432</v>
+        <v>1.030511614624001</v>
       </c>
       <c r="J18">
-        <v>1.011405502256844</v>
+        <v>1.030329620880289</v>
       </c>
       <c r="K18">
-        <v>1.012027052531636</v>
+        <v>1.035318640008742</v>
       </c>
       <c r="L18">
-        <v>1.007361334889668</v>
+        <v>1.028102596042925</v>
       </c>
       <c r="M18">
-        <v>1.011846329560135</v>
+        <v>1.041953744168827</v>
       </c>
       <c r="N18">
-        <v>1.007846816448619</v>
+        <v>1.014152338329103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9840751963736585</v>
+        <v>1.024216778659105</v>
       </c>
       <c r="D19">
-        <v>0.9984846519525603</v>
+        <v>1.032044270629195</v>
       </c>
       <c r="E19">
-        <v>0.993711834632129</v>
+        <v>1.02479802945641</v>
       </c>
       <c r="F19">
-        <v>0.9983533800165378</v>
+        <v>1.038714485231196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042913052707897</v>
+        <v>1.030520896713405</v>
       </c>
       <c r="J19">
-        <v>1.011615388681041</v>
+        <v>1.03037124304856</v>
       </c>
       <c r="K19">
-        <v>1.012264909460075</v>
+        <v>1.035367497570434</v>
       </c>
       <c r="L19">
-        <v>1.007574868452623</v>
+        <v>1.028146466432675</v>
       </c>
       <c r="M19">
-        <v>1.012135900521675</v>
+        <v>1.042014848076879</v>
       </c>
       <c r="N19">
-        <v>1.007916278793789</v>
+        <v>1.014166093074577</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9824485259514918</v>
+        <v>1.023906395350018</v>
       </c>
       <c r="D20">
-        <v>0.9971034471489852</v>
+        <v>1.031760556919018</v>
       </c>
       <c r="E20">
-        <v>0.9924394586339688</v>
+        <v>1.024536166050027</v>
       </c>
       <c r="F20">
-        <v>0.9967360611857153</v>
+        <v>1.038376326264114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042495387191648</v>
+        <v>1.0304792113288</v>
       </c>
       <c r="J20">
-        <v>1.010673205252568</v>
+        <v>1.03018505197816</v>
       </c>
       <c r="K20">
-        <v>1.011197420883712</v>
+        <v>1.035148974939323</v>
       </c>
       <c r="L20">
-        <v>1.00661656671338</v>
+        <v>1.027950249590392</v>
       </c>
       <c r="M20">
-        <v>1.010836546852946</v>
+        <v>1.041741586007283</v>
       </c>
       <c r="N20">
-        <v>1.007604463364967</v>
+        <v>1.014104562021838</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9770573912023384</v>
+        <v>1.022897350137306</v>
       </c>
       <c r="D21">
-        <v>0.9925353860119069</v>
+        <v>1.030838735593666</v>
       </c>
       <c r="E21">
-        <v>0.9882332771231399</v>
+        <v>1.023685436966177</v>
       </c>
       <c r="F21">
-        <v>0.9913877921918642</v>
+        <v>1.037277959049021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041088337826057</v>
+        <v>1.030340642159824</v>
       </c>
       <c r="J21">
-        <v>1.007546668237562</v>
+        <v>1.029578907248052</v>
       </c>
       <c r="K21">
-        <v>1.007659571357854</v>
+        <v>1.034438188392742</v>
       </c>
       <c r="L21">
-        <v>1.003441056173248</v>
+        <v>1.027312016063039</v>
       </c>
       <c r="M21">
-        <v>1.006534183286872</v>
+        <v>1.040853347601218</v>
       </c>
       <c r="N21">
-        <v>1.00656978207801</v>
+        <v>1.013904228881351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9735852988429763</v>
+        <v>1.022262960433911</v>
       </c>
       <c r="D22">
-        <v>0.9896010416837098</v>
+        <v>1.030259586103733</v>
       </c>
       <c r="E22">
-        <v>0.9855329722393128</v>
+        <v>1.02315102830244</v>
       </c>
       <c r="F22">
-        <v>0.9879526528163181</v>
+        <v>1.036588161119585</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040164957994699</v>
+        <v>1.030251187754386</v>
       </c>
       <c r="J22">
-        <v>1.005530290349159</v>
+        <v>1.029197177377558</v>
       </c>
       <c r="K22">
-        <v>1.005381357591325</v>
+        <v>1.03399102766657</v>
       </c>
       <c r="L22">
-        <v>1.001396576743604</v>
+        <v>1.026910498847446</v>
       </c>
       <c r="M22">
-        <v>1.003766608407985</v>
+        <v>1.040295008295313</v>
       </c>
       <c r="N22">
-        <v>1.005902536439355</v>
+        <v>1.013778051361274</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9754339909132435</v>
+        <v>1.022599258537026</v>
       </c>
       <c r="D23">
-        <v>0.9911626730268974</v>
+        <v>1.030566562385264</v>
       </c>
       <c r="E23">
-        <v>0.986969895628904</v>
+        <v>1.023434282594542</v>
       </c>
       <c r="F23">
-        <v>0.9897807770495273</v>
+        <v>1.036953760795422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040658196684979</v>
+        <v>1.030298829853238</v>
       </c>
       <c r="J23">
-        <v>1.006604140447616</v>
+        <v>1.029399598261875</v>
       </c>
       <c r="K23">
-        <v>1.006594331947245</v>
+        <v>1.034228100382081</v>
       </c>
       <c r="L23">
-        <v>1.002485064818048</v>
+        <v>1.027123372563399</v>
       </c>
       <c r="M23">
-        <v>1.005239857343234</v>
+        <v>1.04059098164787</v>
       </c>
       <c r="N23">
-        <v>1.006257882532432</v>
+        <v>1.013844961190471</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9825375657019314</v>
+        <v>1.023923312674258</v>
       </c>
       <c r="D24">
-        <v>0.9971790159142987</v>
+        <v>1.031776018664073</v>
       </c>
       <c r="E24">
-        <v>0.9925090660589295</v>
+        <v>1.024550436636915</v>
       </c>
       <c r="F24">
-        <v>0.996824545315435</v>
+        <v>1.038394753812698</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042518335057801</v>
+        <v>1.030481494891702</v>
       </c>
       <c r="J24">
-        <v>1.010724793258839</v>
+        <v>1.030195203440578</v>
       </c>
       <c r="K24">
-        <v>1.011255852967592</v>
+        <v>1.035160886859721</v>
       </c>
       <c r="L24">
-        <v>1.006669020468868</v>
+        <v>1.027960945600968</v>
       </c>
       <c r="M24">
-        <v>1.010907655927415</v>
+        <v>1.041756479577448</v>
       </c>
       <c r="N24">
-        <v>1.007621536260461</v>
+        <v>1.014107916873898</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9904456892470056</v>
+        <v>1.025459928003733</v>
       </c>
       <c r="D25">
-        <v>1.0039069666418</v>
+        <v>1.033181376250232</v>
       </c>
       <c r="E25">
-        <v>0.9987095571622095</v>
+        <v>1.025847704366928</v>
       </c>
       <c r="F25">
-        <v>1.004703988269305</v>
+        <v>1.040070335922976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044514800789602</v>
+        <v>1.030683291843074</v>
       </c>
       <c r="J25">
-        <v>1.015298928441596</v>
+        <v>1.031115711409474</v>
       </c>
       <c r="K25">
-        <v>1.016444933241155</v>
+        <v>1.036242157928973</v>
       </c>
       <c r="L25">
-        <v>1.011327938678081</v>
+        <v>1.028931842916661</v>
       </c>
       <c r="M25">
-        <v>1.017229717140002</v>
+        <v>1.043109504954755</v>
       </c>
       <c r="N25">
-        <v>1.009135388371547</v>
+        <v>1.014412090982241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026685587568758</v>
+        <v>0.996506749504473</v>
       </c>
       <c r="D2">
-        <v>1.034303725391316</v>
+        <v>1.009085857756463</v>
       </c>
       <c r="E2">
-        <v>1.026883986014946</v>
+        <v>1.003486865480039</v>
       </c>
       <c r="F2">
-        <v>1.041409459000215</v>
+        <v>1.010772252787196</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03083600681697</v>
+        <v>1.045982842770724</v>
       </c>
       <c r="J2">
-        <v>1.031847650046887</v>
+        <v>1.018792447476804</v>
       </c>
       <c r="K2">
-        <v>1.037103585536791</v>
+        <v>1.020420046936745</v>
       </c>
       <c r="L2">
-        <v>1.029705330976416</v>
+        <v>1.014897835538694</v>
       </c>
       <c r="M2">
-        <v>1.044189055169015</v>
+        <v>1.022083525580765</v>
       </c>
       <c r="N2">
-        <v>1.014653901931322</v>
+        <v>1.010291638889412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02757554019607</v>
+        <v>1.000775430785594</v>
       </c>
       <c r="D3">
-        <v>1.035119459966553</v>
+        <v>1.012745368459255</v>
       </c>
       <c r="E3">
-        <v>1.027637310653201</v>
+        <v>1.006864950187946</v>
       </c>
       <c r="F3">
-        <v>1.04238331349327</v>
+        <v>1.015062402250616</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030942097318963</v>
+        <v>1.046979526900632</v>
       </c>
       <c r="J3">
-        <v>1.032377774215887</v>
+        <v>1.021244979073955</v>
       </c>
       <c r="K3">
-        <v>1.037728462511716</v>
+        <v>1.023217726438208</v>
       </c>
       <c r="L3">
-        <v>1.030266410919716</v>
+        <v>1.017410739834545</v>
       </c>
       <c r="M3">
-        <v>1.044973102917291</v>
+        <v>1.025506117119517</v>
       </c>
       <c r="N3">
-        <v>1.01482900863025</v>
+        <v>1.011103345422108</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02815139956578</v>
+        <v>1.003479649134291</v>
       </c>
       <c r="D4">
-        <v>1.035647660894482</v>
+        <v>1.0150690419823</v>
       </c>
       <c r="E4">
-        <v>1.028125166039026</v>
+        <v>1.009010941444012</v>
       </c>
       <c r="F4">
-        <v>1.043014163593116</v>
+        <v>1.017787666942135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031008520972645</v>
+        <v>1.047593270379416</v>
       </c>
       <c r="J4">
-        <v>1.032720178761042</v>
+        <v>1.022794762020875</v>
       </c>
       <c r="K4">
-        <v>1.038132516948554</v>
+        <v>1.024988936278954</v>
       </c>
       <c r="L4">
-        <v>1.030629209876251</v>
+        <v>1.019001815385514</v>
       </c>
       <c r="M4">
-        <v>1.045480518650982</v>
+        <v>1.027676047900317</v>
       </c>
       <c r="N4">
-        <v>1.01494209478125</v>
+        <v>1.011616258532202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028393489725466</v>
+        <v>1.004603095751365</v>
       </c>
       <c r="D5">
-        <v>1.035869802697426</v>
+        <v>1.016035647658621</v>
       </c>
       <c r="E5">
-        <v>1.02833035559902</v>
+        <v>1.009903868152053</v>
       </c>
       <c r="F5">
-        <v>1.043279539351393</v>
+        <v>1.018921625003845</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031035912123558</v>
+        <v>1.047843943612442</v>
       </c>
       <c r="J5">
-        <v>1.032863975733304</v>
+        <v>1.023437634397737</v>
       </c>
       <c r="K5">
-        <v>1.038302312492397</v>
+        <v>1.025724466831017</v>
       </c>
       <c r="L5">
-        <v>1.03078166774318</v>
+        <v>1.019662574044397</v>
       </c>
       <c r="M5">
-        <v>1.045693855077817</v>
+        <v>1.028577909931824</v>
       </c>
       <c r="N5">
-        <v>1.014989583218723</v>
+        <v>1.011829017607726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028434137626689</v>
+        <v>1.004790954028586</v>
       </c>
       <c r="D6">
-        <v>1.035907106290292</v>
+        <v>1.016197352343922</v>
       </c>
       <c r="E6">
-        <v>1.028364813363609</v>
+        <v>1.010053260443073</v>
       </c>
       <c r="F6">
-        <v>1.043324106822342</v>
+        <v>1.019111344375034</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031040479915175</v>
+        <v>1.047885605413908</v>
       </c>
       <c r="J6">
-        <v>1.032888111053327</v>
+        <v>1.023545074696965</v>
       </c>
       <c r="K6">
-        <v>1.038330817832093</v>
+        <v>1.02584744040749</v>
       </c>
       <c r="L6">
-        <v>1.030807262370808</v>
+        <v>1.019773048249236</v>
       </c>
       <c r="M6">
-        <v>1.045729676268566</v>
+        <v>1.028728737272365</v>
       </c>
       <c r="N6">
-        <v>1.014997553617577</v>
+        <v>1.011864574734046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02815463439231</v>
+        <v>1.00349471277507</v>
       </c>
       <c r="D7">
-        <v>1.035650628827601</v>
+        <v>1.01508199772582</v>
       </c>
       <c r="E7">
-        <v>1.028127907420043</v>
+        <v>1.009022908733509</v>
       </c>
       <c r="F7">
-        <v>1.043017708905104</v>
+        <v>1.017802864563644</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031008889071436</v>
+        <v>1.047596648592187</v>
       </c>
       <c r="J7">
-        <v>1.03272210077371</v>
+        <v>1.022803385814326</v>
       </c>
       <c r="K7">
-        <v>1.038134786037399</v>
+        <v>1.024998799829166</v>
       </c>
       <c r="L7">
-        <v>1.030631247274096</v>
+        <v>1.019010676114195</v>
       </c>
       <c r="M7">
-        <v>1.045483369190398</v>
+        <v>1.027688138975486</v>
       </c>
       <c r="N7">
-        <v>1.014942729532773</v>
+        <v>1.011619112603317</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026986350375552</v>
+        <v>0.9979616412613832</v>
       </c>
       <c r="D8">
-        <v>1.03457932999597</v>
+        <v>1.010331979345394</v>
       </c>
       <c r="E8">
-        <v>1.027138491025567</v>
+        <v>1.00463693851275</v>
       </c>
       <c r="F8">
-        <v>1.041738431629005</v>
+        <v>1.012232887583483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030872320539151</v>
+        <v>1.046326206532898</v>
       </c>
       <c r="J8">
-        <v>1.03202693592135</v>
+        <v>1.019629137654272</v>
       </c>
       <c r="K8">
-        <v>1.037314823431779</v>
+        <v>1.02137379280522</v>
       </c>
       <c r="L8">
-        <v>1.029895003111619</v>
+        <v>1.015754463740018</v>
       </c>
       <c r="M8">
-        <v>1.04445400948468</v>
+        <v>1.023249667478508</v>
       </c>
       <c r="N8">
-        <v>1.014713125282653</v>
+        <v>1.010568557531149</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024927742925553</v>
+        <v>0.9877465245770457</v>
       </c>
       <c r="D9">
-        <v>1.032694435016063</v>
+        <v>1.001606964710864</v>
       </c>
       <c r="E9">
-        <v>1.025398175156111</v>
+        <v>0.9965891405537241</v>
       </c>
       <c r="F9">
-        <v>1.039489616055452</v>
+        <v>1.002009929875255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030614676471285</v>
+        <v>1.043843011951097</v>
       </c>
       <c r="J9">
-        <v>1.030797259980668</v>
+        <v>1.013739530669705</v>
       </c>
       <c r="K9">
-        <v>1.035867833812215</v>
+        <v>1.014674023726425</v>
       </c>
       <c r="L9">
-        <v>1.028595729793558</v>
+        <v>1.009737800040117</v>
       </c>
       <c r="M9">
-        <v>1.042640852121151</v>
+        <v>1.015070481323118</v>
       </c>
       <c r="N9">
-        <v>1.014306869379214</v>
+        <v>1.008619281054425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023555448611943</v>
+        <v>0.980591483948813</v>
       </c>
       <c r="D10">
-        <v>1.031439856664543</v>
+        <v>0.995528274916391</v>
       </c>
       <c r="E10">
-        <v>1.024240181747995</v>
+        <v>0.9909887324269822</v>
       </c>
       <c r="F10">
-        <v>1.037994145170531</v>
+        <v>0.9948917485712813</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030431542089097</v>
+        <v>1.042014568465328</v>
       </c>
       <c r="J10">
-        <v>1.029974379554545</v>
+        <v>1.009596882941002</v>
       </c>
       <c r="K10">
-        <v>1.034901827606655</v>
+        <v>1.009978739862601</v>
       </c>
       <c r="L10">
-        <v>1.027728329741638</v>
+        <v>1.00552261677017</v>
       </c>
       <c r="M10">
-        <v>1.041432633996729</v>
+        <v>1.009353850684399</v>
       </c>
       <c r="N10">
-        <v>1.014034937224588</v>
+        <v>1.007248261905189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022961270782418</v>
+        <v>0.9774036519899499</v>
       </c>
       <c r="D11">
-        <v>1.03089710736773</v>
+        <v>0.9928283458240085</v>
       </c>
       <c r="E11">
-        <v>1.023739302605656</v>
+        <v>0.988502938862311</v>
       </c>
       <c r="F11">
-        <v>1.037347494333791</v>
+        <v>0.991730763201617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030349556626752</v>
+        <v>1.041179712340038</v>
       </c>
       <c r="J11">
-        <v>1.029617342790616</v>
+        <v>1.007747644784694</v>
       </c>
       <c r="K11">
-        <v>1.034483231856987</v>
+        <v>1.007886788302338</v>
       </c>
       <c r="L11">
-        <v>1.027352461765031</v>
+        <v>1.003644979459065</v>
       </c>
       <c r="M11">
-        <v>1.040909609681034</v>
+        <v>1.006810328473336</v>
       </c>
       <c r="N11">
-        <v>1.013916932814513</v>
+        <v>1.006636289909194</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022740572994089</v>
+        <v>0.9762053626182419</v>
       </c>
       <c r="D12">
-        <v>1.030695581377734</v>
+        <v>0.9918147660108696</v>
       </c>
       <c r="E12">
-        <v>1.023553336363434</v>
+        <v>0.9875700180299897</v>
       </c>
       <c r="F12">
-        <v>1.03710743569788</v>
+        <v>0.990544166300165</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03031870070685</v>
+        <v>1.04086293688166</v>
       </c>
       <c r="J12">
-        <v>1.029484615733733</v>
+        <v>1.007052045525684</v>
       </c>
       <c r="K12">
-        <v>1.03432770154521</v>
+        <v>1.007100480447302</v>
       </c>
       <c r="L12">
-        <v>1.02721280704055</v>
+        <v>1.002939295298759</v>
       </c>
       <c r="M12">
-        <v>1.040715357772547</v>
+        <v>1.005854795394608</v>
       </c>
       <c r="N12">
-        <v>1.013873062643962</v>
+        <v>1.006406101423539</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022787913115475</v>
+        <v>0.9764630538006922</v>
       </c>
       <c r="D13">
-        <v>1.030738805957815</v>
+        <v>0.9920326754730502</v>
       </c>
       <c r="E13">
-        <v>1.023593222993117</v>
+        <v>0.9877705741561428</v>
       </c>
       <c r="F13">
-        <v>1.037158922901361</v>
+        <v>0.9907992701094948</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030325337623804</v>
+        <v>1.040931191499421</v>
       </c>
       <c r="J13">
-        <v>1.029513090994578</v>
+        <v>1.007201654453638</v>
       </c>
       <c r="K13">
-        <v>1.034361065352377</v>
+        <v>1.00726957242584</v>
       </c>
       <c r="L13">
-        <v>1.027242765272907</v>
+        <v>1.003091046284124</v>
       </c>
       <c r="M13">
-        <v>1.040757024423001</v>
+        <v>1.006060255799652</v>
       </c>
       <c r="N13">
-        <v>1.0138824746615</v>
+        <v>1.00645560980682</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022943027699222</v>
+        <v>0.9773048947445294</v>
       </c>
       <c r="D14">
-        <v>1.030880447622873</v>
+        <v>0.9927447845109123</v>
       </c>
       <c r="E14">
-        <v>1.023723928884969</v>
+        <v>0.9884260216316126</v>
       </c>
       <c r="F14">
-        <v>1.037327648224125</v>
+        <v>0.9916329368455451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030347014280407</v>
+        <v>1.041153664868456</v>
       </c>
       <c r="J14">
-        <v>1.029606373721614</v>
+        <v>1.007690326299933</v>
       </c>
       <c r="K14">
-        <v>1.034470376588506</v>
+        <v>1.007821983361734</v>
       </c>
       <c r="L14">
-        <v>1.027340918684009</v>
+        <v>1.003586817820129</v>
       </c>
       <c r="M14">
-        <v>1.040893552289177</v>
+        <v>1.006731566305048</v>
       </c>
       <c r="N14">
-        <v>1.013913307267122</v>
+        <v>1.006617321848067</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023038599783256</v>
+        <v>0.9778216785659692</v>
       </c>
       <c r="D15">
-        <v>1.030967727743622</v>
+        <v>0.9931821036985454</v>
       </c>
       <c r="E15">
-        <v>1.023804472085134</v>
+        <v>0.9888285800475857</v>
       </c>
       <c r="F15">
-        <v>1.037431623563142</v>
+        <v>0.9921449149091092</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030360316624679</v>
+        <v>1.041289847845144</v>
       </c>
       <c r="J15">
-        <v>1.029663834048692</v>
+        <v>1.007990247209581</v>
       </c>
       <c r="K15">
-        <v>1.034537720892448</v>
+        <v>1.008161101360534</v>
       </c>
       <c r="L15">
-        <v>1.027401388891421</v>
+        <v>1.003891174910583</v>
       </c>
       <c r="M15">
-        <v>1.040977674647156</v>
+        <v>1.007143741739836</v>
       </c>
       <c r="N15">
-        <v>1.013932299218647</v>
+        <v>1.006716573187498</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023594883062416</v>
+        <v>0.9808011008741949</v>
       </c>
       <c r="D16">
-        <v>1.031475887624044</v>
+        <v>0.9957059881255885</v>
       </c>
       <c r="E16">
-        <v>1.024273434944764</v>
+        <v>0.9911523876389362</v>
       </c>
       <c r="F16">
-        <v>1.038037080292524</v>
+        <v>0.9950998202201238</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030436926652101</v>
+        <v>1.042069050271487</v>
       </c>
       <c r="J16">
-        <v>1.029998059745204</v>
+        <v>1.009718410784693</v>
       </c>
       <c r="K16">
-        <v>1.034929602023807</v>
+        <v>1.010116300378364</v>
       </c>
       <c r="L16">
-        <v>1.027753269101772</v>
+        <v>1.00564609374813</v>
       </c>
       <c r="M16">
-        <v>1.041467348499739</v>
+        <v>1.009521176411612</v>
       </c>
       <c r="N16">
-        <v>1.014042763427799</v>
+        <v>1.007288480294535</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023943834929244</v>
+        <v>0.9826455202165524</v>
       </c>
       <c r="D17">
-        <v>1.031794775471903</v>
+        <v>0.9972706431929491</v>
       </c>
       <c r="E17">
-        <v>1.024567748494729</v>
+        <v>0.9925934662992656</v>
       </c>
       <c r="F17">
-        <v>1.0384171086747</v>
+        <v>0.9969318329396893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030484263285086</v>
+        <v>1.042546144545471</v>
       </c>
       <c r="J17">
-        <v>1.030207517597223</v>
+        <v>1.010787337800146</v>
       </c>
       <c r="K17">
-        <v>1.035175336883937</v>
+        <v>1.011326697759665</v>
       </c>
       <c r="L17">
-        <v>1.027973920637654</v>
+        <v>1.006732617219549</v>
       </c>
       <c r="M17">
-        <v>1.04177454690783</v>
+        <v>1.010993872955415</v>
       </c>
       <c r="N17">
-        <v>1.014111986441427</v>
+        <v>1.007642235211673</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024147375920122</v>
+        <v>0.9837127396908668</v>
       </c>
       <c r="D18">
-        <v>1.031980824676309</v>
+        <v>0.9981767734337541</v>
       </c>
       <c r="E18">
-        <v>1.024739468577008</v>
+        <v>0.9934281909832068</v>
       </c>
       <c r="F18">
-        <v>1.038638859345402</v>
+        <v>0.9979928600924328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030511614624001</v>
+        <v>1.042820278089432</v>
       </c>
       <c r="J18">
-        <v>1.030329620880289</v>
+        <v>1.011405502256843</v>
       </c>
       <c r="K18">
-        <v>1.035318640008742</v>
+        <v>1.012027052531636</v>
       </c>
       <c r="L18">
-        <v>1.028102596042925</v>
+        <v>1.007361334889668</v>
       </c>
       <c r="M18">
-        <v>1.041953744168827</v>
+        <v>1.011846329560135</v>
       </c>
       <c r="N18">
-        <v>1.014152338329103</v>
+        <v>1.007846816448619</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024216778659105</v>
+        <v>0.9840751963736575</v>
       </c>
       <c r="D19">
-        <v>1.032044270629195</v>
+        <v>0.9984846519525594</v>
       </c>
       <c r="E19">
-        <v>1.02479802945641</v>
+        <v>0.9937118346321281</v>
       </c>
       <c r="F19">
-        <v>1.038714485231196</v>
+        <v>0.9983533800165368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030520896713405</v>
+        <v>1.042913052707896</v>
       </c>
       <c r="J19">
-        <v>1.03037124304856</v>
+        <v>1.01161538868104</v>
       </c>
       <c r="K19">
-        <v>1.035367497570434</v>
+        <v>1.012264909460074</v>
       </c>
       <c r="L19">
-        <v>1.028146466432675</v>
+        <v>1.007574868452622</v>
       </c>
       <c r="M19">
-        <v>1.042014848076879</v>
+        <v>1.012135900521675</v>
       </c>
       <c r="N19">
-        <v>1.014166093074577</v>
+        <v>1.007916278793789</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023906395350018</v>
+        <v>0.9824485259514909</v>
       </c>
       <c r="D20">
-        <v>1.031760556919018</v>
+        <v>0.997103447148984</v>
       </c>
       <c r="E20">
-        <v>1.024536166050027</v>
+        <v>0.9924394586339678</v>
       </c>
       <c r="F20">
-        <v>1.038376326264114</v>
+        <v>0.996736061185714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0304792113288</v>
+        <v>1.042495387191647</v>
       </c>
       <c r="J20">
-        <v>1.03018505197816</v>
+        <v>1.010673205252567</v>
       </c>
       <c r="K20">
-        <v>1.035148974939323</v>
+        <v>1.011197420883711</v>
       </c>
       <c r="L20">
-        <v>1.027950249590392</v>
+        <v>1.00661656671338</v>
       </c>
       <c r="M20">
-        <v>1.041741586007283</v>
+        <v>1.010836546852945</v>
       </c>
       <c r="N20">
-        <v>1.014104562021838</v>
+        <v>1.007604463364967</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022897350137306</v>
+        <v>0.9770573912023379</v>
       </c>
       <c r="D21">
-        <v>1.030838735593666</v>
+        <v>0.9925353860119061</v>
       </c>
       <c r="E21">
-        <v>1.023685436966177</v>
+        <v>0.9882332771231392</v>
       </c>
       <c r="F21">
-        <v>1.037277959049021</v>
+        <v>0.9913877921918635</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030340642159824</v>
+        <v>1.041088337826056</v>
       </c>
       <c r="J21">
-        <v>1.029578907248052</v>
+        <v>1.007546668237562</v>
       </c>
       <c r="K21">
-        <v>1.034438188392742</v>
+        <v>1.007659571357853</v>
       </c>
       <c r="L21">
-        <v>1.027312016063039</v>
+        <v>1.003441056173248</v>
       </c>
       <c r="M21">
-        <v>1.040853347601218</v>
+        <v>1.006534183286871</v>
       </c>
       <c r="N21">
-        <v>1.013904228881351</v>
+        <v>1.006569782078009</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022262960433911</v>
+        <v>0.9735852988429757</v>
       </c>
       <c r="D22">
-        <v>1.030259586103733</v>
+        <v>0.9896010416837091</v>
       </c>
       <c r="E22">
-        <v>1.02315102830244</v>
+        <v>0.9855329722393121</v>
       </c>
       <c r="F22">
-        <v>1.036588161119585</v>
+        <v>0.9879526528163175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030251187754386</v>
+        <v>1.040164957994699</v>
       </c>
       <c r="J22">
-        <v>1.029197177377558</v>
+        <v>1.005530290349158</v>
       </c>
       <c r="K22">
-        <v>1.03399102766657</v>
+        <v>1.005381357591325</v>
       </c>
       <c r="L22">
-        <v>1.026910498847446</v>
+        <v>1.001396576743603</v>
       </c>
       <c r="M22">
-        <v>1.040295008295313</v>
+        <v>1.003766608407984</v>
       </c>
       <c r="N22">
-        <v>1.013778051361274</v>
+        <v>1.005902536439355</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022599258537026</v>
+        <v>0.975433990913242</v>
       </c>
       <c r="D23">
-        <v>1.030566562385264</v>
+        <v>0.9911626730268958</v>
       </c>
       <c r="E23">
-        <v>1.023434282594542</v>
+        <v>0.9869698956289025</v>
       </c>
       <c r="F23">
-        <v>1.036953760795422</v>
+        <v>0.9897807770495251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030298829853238</v>
+        <v>1.040658196684978</v>
       </c>
       <c r="J23">
-        <v>1.029399598261875</v>
+        <v>1.006604140447615</v>
       </c>
       <c r="K23">
-        <v>1.034228100382081</v>
+        <v>1.006594331947243</v>
       </c>
       <c r="L23">
-        <v>1.027123372563399</v>
+        <v>1.002485064818047</v>
       </c>
       <c r="M23">
-        <v>1.04059098164787</v>
+        <v>1.005239857343232</v>
       </c>
       <c r="N23">
-        <v>1.013844961190471</v>
+        <v>1.006257882532432</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023923312674258</v>
+        <v>0.982537565701932</v>
       </c>
       <c r="D24">
-        <v>1.031776018664073</v>
+        <v>0.9971790159142992</v>
       </c>
       <c r="E24">
-        <v>1.024550436636915</v>
+        <v>0.9925090660589299</v>
       </c>
       <c r="F24">
-        <v>1.038394753812698</v>
+        <v>0.9968245453154354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030481494891702</v>
+        <v>1.042518335057802</v>
       </c>
       <c r="J24">
-        <v>1.030195203440578</v>
+        <v>1.01072479325884</v>
       </c>
       <c r="K24">
-        <v>1.035160886859721</v>
+        <v>1.011255852967593</v>
       </c>
       <c r="L24">
-        <v>1.027960945600968</v>
+        <v>1.006669020468868</v>
       </c>
       <c r="M24">
-        <v>1.041756479577448</v>
+        <v>1.010907655927415</v>
       </c>
       <c r="N24">
-        <v>1.014107916873898</v>
+        <v>1.007621536260461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025459928003733</v>
+        <v>0.9904456892470053</v>
       </c>
       <c r="D25">
-        <v>1.033181376250232</v>
+        <v>1.0039069666418</v>
       </c>
       <c r="E25">
-        <v>1.025847704366928</v>
+        <v>0.9987095571622093</v>
       </c>
       <c r="F25">
-        <v>1.040070335922976</v>
+        <v>1.004703988269305</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030683291843074</v>
+        <v>1.044514800789602</v>
       </c>
       <c r="J25">
-        <v>1.031115711409474</v>
+        <v>1.015298928441596</v>
       </c>
       <c r="K25">
-        <v>1.036242157928973</v>
+        <v>1.016444933241155</v>
       </c>
       <c r="L25">
-        <v>1.028931842916661</v>
+        <v>1.011327938678081</v>
       </c>
       <c r="M25">
-        <v>1.043109504954755</v>
+        <v>1.017229717140002</v>
       </c>
       <c r="N25">
-        <v>1.014412090982241</v>
+        <v>1.009135388371547</v>
       </c>
     </row>
   </sheetData>
